--- a/biology/Zoologie/Ecdysozoa/Ecdysozoa.xlsx
+++ b/biology/Zoologie/Ecdysozoa/Ecdysozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ecdysozoaires (Ecdysozoa) sont un super-embranchement d'animaux protostomiens dont le développement s'effectue par une ou plusieurs mues cuticulaires. Il rassemble huit embranchements, dont les plus connus sont les Arthropodes (comprenant notamment les Insectes et les Crustacés) et les Nématodes.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecdysozoa vient du grec ancien ἔκδυσις / ékdusis, « mue » et ζῷον / zôion, « animal ». Le premier mot a aussi donné le mot « ecdysis », signifiant "mue".
-Le groupe des Ecdysozoa a été proposé par Aguinaldo et al. en 1997 sur la base d'une analyse phylogénétique moléculaire de séquences 18S. Ce clade comprenait initialement les Onychophora, les Tardigrada, les Nematoda, les Nematomorpha, les Kinorhyncha et les Priapulida[1]. Il n'existait pas encore de données moléculaires pour les Loricifera qui ont été inclus au sein des Ecdysozoa par la suite.
-Cette étude a invalidé le clade des Articulata, proposé par Georges Cuvier en 1817[2],[3], qui regroupait les Annelida et les Arthropodes sur l'idée que la segmentation était un caractère dérivé partagé (une synapomorphie)[1]. Les données génétiques montrent que la segmentation s'est développée de façon indépendante chez les Ecdysozoaires et chez les Lophotrochozoaires.
+Le groupe des Ecdysozoa a été proposé par Aguinaldo et al. en 1997 sur la base d'une analyse phylogénétique moléculaire de séquences 18S. Ce clade comprenait initialement les Onychophora, les Tardigrada, les Nematoda, les Nematomorpha, les Kinorhyncha et les Priapulida. Il n'existait pas encore de données moléculaires pour les Loricifera qui ont été inclus au sein des Ecdysozoa par la suite.
+Cette étude a invalidé le clade des Articulata, proposé par Georges Cuvier en 1817 qui regroupait les Annelida et les Arthropodes sur l'idée que la segmentation était un caractère dérivé partagé (une synapomorphie). Les données génétiques montrent que la segmentation s'est développée de façon indépendante chez les Ecdysozoaires et chez les Lophotrochozoaires.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La synapomorphie principale de ce groupe est la présence d'une croissance par mue. Aguinaldo et al. discutent également d'autres hypothèses, comme la perte des cils locomoteurs de l'épiderme. Ce caractère est absent chez tous les ecdysozoaires, mais il l'est également chez d'autres groupes de prostostomiens (chaetognathes et acanthocéphales), qui ont pu le perdre par convergence[1]. C'est la mue qui constitue un caractère dérivé partagé et justifie de regrouper les Ecdysozoaires, la segmentation étant une convergence évolutive[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La synapomorphie principale de ce groupe est la présence d'une croissance par mue. Aguinaldo et al. discutent également d'autres hypothèses, comme la perte des cils locomoteurs de l'épiderme. Ce caractère est absent chez tous les ecdysozoaires, mais il l'est également chez d'autres groupes de prostostomiens (chaetognathes et acanthocéphales), qui ont pu le perdre par convergence. C'est la mue qui constitue un caractère dérivé partagé et justifie de regrouper les Ecdysozoaires, la segmentation étant une convergence évolutive.
 La mue des arthropodes est déclenchée par l'ecdysone, mais cette hormone n'est probablement pas présente chez tous les Ecdysozoaires : le nématode Caenorhabditis elegans utilise une autre hormone stéroïde.
 Parmi les autres synapomorphies des ecdysozoaires, on peut mentionner :
 le pharynx à musculature triradiée,
@@ -579,9 +595,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme selon une étude réalisée par Yamasaki en 2015[5]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme selon une étude réalisée par Yamasaki en 2015:
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des embranchements actuels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (19 juillet 2017)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 juillet 2017) :
 clade Scalidophora
 Kinorhyncha Reinhard, 1881
 Loricifera Kristensen, 1983
